--- a/2020/March/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/March/Others/Price List Update_01.01.2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -462,7 +462,16 @@
     <t>i74</t>
   </si>
   <si>
-    <t>January Month'2020</t>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>March Month'2020</t>
+  </si>
+  <si>
+    <t>BL98</t>
   </si>
 </sst>
 </file>
@@ -983,15 +992,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,6 +1008,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5269,13 +5278,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>268677</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>440297</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114342</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5287,7 +5296,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="268677" y="10591925"/>
+          <a:off x="268677" y="10801475"/>
           <a:ext cx="5315120" cy="247567"/>
           <a:chOff x="-564" y="-337"/>
           <a:chExt cx="1279" cy="894"/>
@@ -10338,10 +10347,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10360,73 +10369,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
     </row>
     <row r="3" spans="1:25" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="G3" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:25" s="40" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="43" t="s">
@@ -10463,13 +10472,13 @@
     </row>
     <row r="5" spans="1:25" ht="15.75">
       <c r="A5" s="46" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B5" s="47">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="C5" s="47">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47">
@@ -10492,13 +10501,13 @@
     </row>
     <row r="6" spans="1:25" ht="15.75">
       <c r="A6" s="46" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B6" s="47">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="C6" s="47">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
@@ -10610,24 +10619,32 @@
     </row>
     <row r="10" spans="1:25" ht="15.75">
       <c r="A10" s="46" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B10" s="47">
+        <v>740</v>
+      </c>
+      <c r="C10" s="47">
         <v>800</v>
-      </c>
-      <c r="C10" s="47">
-        <v>860</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47">
         <v>10</v>
       </c>
       <c r="F10" s="48"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="49">
+        <v>1190</v>
+      </c>
       <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="K10" s="47">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="15.75">
       <c r="A11" s="46" t="s">
@@ -10645,17 +10662,19 @@
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="46" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H11" s="49">
-        <v>1100</v>
+        <v>1330</v>
       </c>
       <c r="I11" s="49">
-        <v>1190</v>
-      </c>
-      <c r="J11" s="47"/>
+        <v>1450</v>
+      </c>
+      <c r="J11" s="47">
+        <v>100</v>
+      </c>
       <c r="K11" s="47">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75">
@@ -10674,17 +10693,15 @@
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="46" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H12" s="49">
-        <v>1330</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="49">
-        <v>1450</v>
-      </c>
-      <c r="J12" s="47">
-        <v>100</v>
-      </c>
+        <v>1299</v>
+      </c>
+      <c r="J12" s="47"/>
       <c r="K12" s="47">
         <v>20</v>
       </c>
@@ -10705,17 +10722,17 @@
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="46" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H13" s="49">
-        <v>1200</v>
+        <v>12240</v>
       </c>
       <c r="I13" s="49">
-        <v>1299</v>
+        <v>12990</v>
       </c>
       <c r="J13" s="47"/>
       <c r="K13" s="47">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75">
@@ -10734,17 +10751,17 @@
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="46" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H14" s="49">
-        <v>1100</v>
+        <v>12090</v>
       </c>
       <c r="I14" s="49">
-        <v>1190</v>
+        <v>12990</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="47">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75">
@@ -10763,17 +10780,17 @@
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="46" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H15" s="49">
-        <v>1190</v>
+        <v>12490</v>
       </c>
       <c r="I15" s="49">
-        <v>1290</v>
+        <v>13490</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75">
@@ -10792,17 +10809,17 @@
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="46" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="H16" s="49">
-        <v>12240</v>
+        <v>5750</v>
       </c>
       <c r="I16" s="49">
-        <v>12990</v>
+        <v>6190</v>
       </c>
       <c r="J16" s="47"/>
       <c r="K16" s="47">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
@@ -10821,57 +10838,57 @@
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="49">
-        <v>12090</v>
+        <v>17790</v>
       </c>
       <c r="I17" s="49">
-        <v>12990</v>
+        <v>18990</v>
       </c>
       <c r="J17" s="47"/>
       <c r="K17" s="47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1">
       <c r="A18" s="46" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="B18" s="47">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="C18" s="47">
-        <v>1090</v>
+        <v>890</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="46" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="H18" s="49">
-        <v>12490</v>
+        <v>1190</v>
       </c>
       <c r="I18" s="49">
-        <v>13490</v>
+        <v>1290</v>
       </c>
       <c r="J18" s="47"/>
       <c r="K18" s="47">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="47">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C19" s="47">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47">
@@ -10879,63 +10896,71 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="46" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H19" s="49">
-        <v>5750</v>
+        <v>10330</v>
       </c>
       <c r="I19" s="49">
-        <v>6190</v>
+        <v>10990</v>
       </c>
       <c r="J19" s="47"/>
       <c r="K19" s="47">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="49">
-        <v>880</v>
-      </c>
-      <c r="C20" s="49">
-        <v>950</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="47">
+        <v>995</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1075</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="46" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H20" s="49">
-        <v>17790</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="49">
-        <v>18990</v>
+        <v>1190</v>
       </c>
       <c r="J20" s="47"/>
       <c r="K20" s="47">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="49">
+        <v>880</v>
+      </c>
+      <c r="C21" s="49">
+        <v>950</v>
+      </c>
       <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="47">
+        <v>10</v>
+      </c>
       <c r="F21" s="48"/>
       <c r="G21" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="49">
-        <v>10330</v>
+        <v>1730</v>
       </c>
       <c r="I21" s="49">
-        <v>10990</v>
+        <v>1890</v>
       </c>
       <c r="J21" s="47"/>
       <c r="K21" s="47">
@@ -10958,17 +10983,17 @@
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="46" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="H22" s="49">
-        <v>1730</v>
+        <v>1250</v>
       </c>
       <c r="I22" s="49">
-        <v>1890</v>
+        <v>1350</v>
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="47">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
@@ -10987,17 +11012,17 @@
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="46" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H23" s="49">
-        <v>1250</v>
+        <v>1370</v>
       </c>
       <c r="I23" s="49">
-        <v>1350</v>
+        <v>1490</v>
       </c>
       <c r="J23" s="47"/>
       <c r="K23" s="47">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
@@ -11016,17 +11041,17 @@
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="46" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="H24" s="49">
-        <v>1370</v>
+        <v>3610</v>
       </c>
       <c r="I24" s="49">
-        <v>1490</v>
+        <v>3890</v>
       </c>
       <c r="J24" s="47"/>
       <c r="K24" s="47">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
@@ -11045,13 +11070,13 @@
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="49">
-        <v>3610</v>
+        <v>3890</v>
       </c>
       <c r="I25" s="49">
-        <v>3890</v>
+        <v>4190</v>
       </c>
       <c r="J25" s="47"/>
       <c r="K25" s="47">
@@ -11060,13 +11085,13 @@
     </row>
     <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="46" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B26" s="49">
+        <v>1190</v>
+      </c>
+      <c r="C26" s="49">
         <v>1290</v>
-      </c>
-      <c r="C26" s="49">
-        <v>1390</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47">
@@ -11074,28 +11099,30 @@
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="46" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H26" s="49">
-        <v>3890</v>
+        <v>4280</v>
       </c>
       <c r="I26" s="49">
-        <v>4190</v>
-      </c>
-      <c r="J26" s="47"/>
+        <v>4590</v>
+      </c>
+      <c r="J26" s="47">
+        <v>300</v>
+      </c>
       <c r="K26" s="47">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="46" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B27" s="49">
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="C27" s="49">
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47">
@@ -11103,30 +11130,28 @@
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="46" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H27" s="49">
-        <v>4280</v>
+        <v>5650</v>
       </c>
       <c r="I27" s="49">
-        <v>4590</v>
-      </c>
-      <c r="J27" s="47">
-        <v>300</v>
-      </c>
+        <v>6150</v>
+      </c>
+      <c r="J27" s="47"/>
       <c r="K27" s="47">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="46" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B28" s="49">
+        <v>1170</v>
+      </c>
+      <c r="C28" s="49">
         <v>1270</v>
-      </c>
-      <c r="C28" s="49">
-        <v>1370</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47">
@@ -11134,28 +11159,28 @@
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="46" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="H28" s="49">
-        <v>5650</v>
+        <v>5020</v>
       </c>
       <c r="I28" s="49">
-        <v>6150</v>
+        <v>5390</v>
       </c>
       <c r="J28" s="47"/>
       <c r="K28" s="47">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="46" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B29" s="49">
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="C29" s="49">
-        <v>1270</v>
+        <v>1370</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47">
@@ -11163,13 +11188,13 @@
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="49">
-        <v>5020</v>
+        <v>5280</v>
       </c>
       <c r="I29" s="49">
-        <v>5390</v>
+        <v>5690</v>
       </c>
       <c r="J29" s="47"/>
       <c r="K29" s="47">
@@ -11192,17 +11217,17 @@
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="46" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H30" s="49">
-        <v>5280</v>
+        <v>4180</v>
       </c>
       <c r="I30" s="49">
-        <v>5690</v>
+        <v>4690</v>
       </c>
       <c r="J30" s="47"/>
       <c r="K30" s="47">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
@@ -11221,17 +11246,19 @@
       </c>
       <c r="F31" s="48"/>
       <c r="G31" s="46" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H31" s="49">
-        <v>4550</v>
+        <v>5100</v>
       </c>
       <c r="I31" s="49">
-        <v>4890</v>
-      </c>
-      <c r="J31" s="47"/>
+        <v>5490</v>
+      </c>
+      <c r="J31" s="47">
+        <v>70</v>
+      </c>
       <c r="K31" s="47">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
@@ -11250,129 +11277,137 @@
       </c>
       <c r="F32" s="48"/>
       <c r="G32" s="46" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H32" s="49">
-        <v>5100</v>
+        <v>5560</v>
       </c>
       <c r="I32" s="49">
-        <v>5490</v>
+        <v>5990</v>
       </c>
       <c r="J32" s="47">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K32" s="47">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="46" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B33" s="49">
-        <v>8290</v>
+        <v>6540</v>
       </c>
       <c r="C33" s="49">
-        <v>8890</v>
+        <v>6990</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
       <c r="G33" s="46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33" s="49">
-        <v>5560</v>
+        <v>5390</v>
       </c>
       <c r="I33" s="49">
-        <v>5990</v>
+        <v>5790</v>
       </c>
       <c r="J33" s="47">
         <v>200</v>
       </c>
       <c r="K33" s="47">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B34" s="49">
-        <v>8340</v>
+        <v>8290</v>
       </c>
       <c r="C34" s="49">
-        <v>8990</v>
+        <v>8890</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="47">
-        <v>100</v>
-      </c>
+      <c r="E34" s="47"/>
       <c r="F34" s="48"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
+      <c r="G34" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="49">
+        <v>3560</v>
+      </c>
+      <c r="I34" s="49">
+        <v>3840</v>
+      </c>
+      <c r="J34" s="47">
+        <v>400</v>
+      </c>
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="46" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B35" s="49">
-        <v>9190</v>
+        <v>8340</v>
       </c>
       <c r="C35" s="49">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F35" s="48"/>
-      <c r="G35" s="46" t="s">
-        <v>32</v>
+      <c r="G35" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H35" s="49">
-        <v>5390</v>
+        <v>3340</v>
       </c>
       <c r="I35" s="49">
-        <v>5790</v>
+        <v>3590</v>
       </c>
       <c r="J35" s="47">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K35" s="47">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="46" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B36" s="49">
-        <v>6540</v>
+        <v>9190</v>
       </c>
       <c r="C36" s="49">
-        <v>6990</v>
+        <v>9990</v>
       </c>
       <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
+      <c r="E36" s="47">
+        <v>170</v>
+      </c>
       <c r="F36" s="48"/>
       <c r="G36" s="46" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="H36" s="49">
-        <v>3560</v>
+        <v>4500</v>
       </c>
       <c r="I36" s="49">
-        <v>3840</v>
-      </c>
-      <c r="J36" s="47">
-        <v>400</v>
-      </c>
+        <v>4790</v>
+      </c>
+      <c r="J36" s="47"/>
       <c r="K36" s="47">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
@@ -11390,20 +11425,18 @@
         <v>80</v>
       </c>
       <c r="F37" s="48"/>
-      <c r="G37" s="51" t="s">
-        <v>35</v>
+      <c r="G37" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="H37" s="49">
-        <v>3340</v>
+        <v>5390</v>
       </c>
       <c r="I37" s="49">
-        <v>3590</v>
-      </c>
-      <c r="J37" s="47">
-        <v>320</v>
-      </c>
+        <v>5790</v>
+      </c>
+      <c r="J37" s="47"/>
       <c r="K37" s="47">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
@@ -11421,110 +11454,116 @@
         <v>70</v>
       </c>
       <c r="F38" s="48"/>
-      <c r="G38" s="46" t="s">
-        <v>108</v>
+      <c r="G38" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="H38" s="49">
-        <v>4500</v>
+        <v>4970</v>
       </c>
       <c r="I38" s="49">
-        <v>4790</v>
+        <v>5290</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="47">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="46" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B39" s="49">
-        <v>5750</v>
+        <v>5170</v>
       </c>
       <c r="C39" s="49">
-        <v>6190</v>
-      </c>
-      <c r="D39" s="47"/>
+        <v>5499</v>
+      </c>
+      <c r="D39" s="47">
+        <v>50</v>
+      </c>
       <c r="E39" s="47">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="46" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H39" s="49">
-        <v>5390</v>
+        <v>4015</v>
       </c>
       <c r="I39" s="49">
-        <v>5790</v>
+        <v>4390</v>
       </c>
       <c r="J39" s="47"/>
       <c r="K39" s="47">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="46" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B40" s="49">
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="C40" s="49">
-        <v>5990</v>
+        <v>6190</v>
       </c>
       <c r="D40" s="47"/>
       <c r="E40" s="47">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F40" s="48"/>
-      <c r="G40" s="52" t="s">
-        <v>27</v>
+      <c r="G40" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="H40" s="49">
-        <v>4970</v>
+        <v>3710</v>
       </c>
       <c r="I40" s="49">
-        <v>5290</v>
-      </c>
-      <c r="J40" s="47"/>
+        <v>3990</v>
+      </c>
+      <c r="J40" s="47">
+        <v>200</v>
+      </c>
       <c r="K40" s="47">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="46" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B41" s="49">
-        <v>5940</v>
+        <v>5550</v>
       </c>
       <c r="C41" s="49">
-        <v>6390</v>
+        <v>5990</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="47">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="46" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="H41" s="49">
-        <v>4015</v>
+        <v>3620</v>
       </c>
       <c r="I41" s="49">
-        <v>4390</v>
-      </c>
-      <c r="J41" s="47"/>
+        <v>3890</v>
+      </c>
+      <c r="J41" s="47">
+        <v>320</v>
+      </c>
       <c r="K41" s="47">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="46" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B42" s="49">
         <v>5940</v>
@@ -11538,61 +11577,59 @@
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="46" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H42" s="49">
-        <v>3710</v>
+        <v>4080</v>
       </c>
       <c r="I42" s="49">
-        <v>3990</v>
+        <v>4390</v>
       </c>
       <c r="J42" s="47">
         <v>200</v>
       </c>
       <c r="K42" s="47">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="46" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B43" s="49">
-        <v>6030</v>
+        <v>5940</v>
       </c>
       <c r="C43" s="49">
-        <v>6490</v>
+        <v>6390</v>
       </c>
       <c r="D43" s="47"/>
       <c r="E43" s="47">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H43" s="49">
-        <v>3620</v>
+        <v>4220</v>
       </c>
       <c r="I43" s="49">
-        <v>3890</v>
-      </c>
-      <c r="J43" s="47">
-        <v>320</v>
-      </c>
+        <v>4540</v>
+      </c>
+      <c r="J43" s="47"/>
       <c r="K43" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="46" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B44" s="49">
-        <v>6470</v>
+        <v>6030</v>
       </c>
       <c r="C44" s="49">
-        <v>6990</v>
+        <v>6490</v>
       </c>
       <c r="D44" s="47"/>
       <c r="E44" s="47">
@@ -11600,59 +11637,57 @@
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="46" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H44" s="49">
-        <v>4080</v>
+        <v>3710</v>
       </c>
       <c r="I44" s="49">
-        <v>4390</v>
-      </c>
-      <c r="J44" s="47">
-        <v>200</v>
-      </c>
+        <v>3990</v>
+      </c>
+      <c r="J44" s="47"/>
       <c r="K44" s="47">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="46" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B45" s="49">
-        <v>1220</v>
+        <v>6470</v>
       </c>
       <c r="C45" s="49">
-        <v>1320</v>
+        <v>6990</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H45" s="49">
-        <v>4220</v>
+        <v>12590</v>
       </c>
       <c r="I45" s="49">
-        <v>4540</v>
+        <v>13490</v>
       </c>
       <c r="J45" s="47"/>
       <c r="K45" s="47">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="46" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B46" s="49">
-        <v>1460</v>
+        <v>1220</v>
       </c>
       <c r="C46" s="49">
-        <v>1590</v>
+        <v>1320</v>
       </c>
       <c r="D46" s="47"/>
       <c r="E46" s="47">
@@ -11660,187 +11695,195 @@
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="46" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H46" s="49">
-        <v>3710</v>
+        <v>7350</v>
       </c>
       <c r="I46" s="49">
-        <v>3990</v>
+        <v>7990</v>
       </c>
       <c r="J46" s="47"/>
       <c r="K46" s="47">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="46" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B47" s="49">
-        <v>1070</v>
+        <v>1460</v>
       </c>
       <c r="C47" s="49">
-        <v>1160</v>
+        <v>1590</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="46" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="H47" s="49">
-        <v>12590</v>
+        <v>7890</v>
       </c>
       <c r="I47" s="49">
-        <v>13490</v>
+        <v>8490</v>
       </c>
       <c r="J47" s="47"/>
-      <c r="K47" s="47">
+      <c r="K47" s="47"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="49">
+        <v>1070</v>
+      </c>
+      <c r="C48" s="49">
+        <v>1160</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="46"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
       <c r="F48" s="48"/>
       <c r="G48" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H48" s="49">
-        <v>7350</v>
+        <v>8310</v>
       </c>
       <c r="I48" s="49">
-        <v>7990</v>
+        <v>8990</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="47">
-        <v>0</v>
-      </c>
+      <c r="K48" s="47"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="46" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="B49" s="49">
+        <v>1080</v>
+      </c>
+      <c r="C49" s="49">
         <v>1160</v>
-      </c>
-      <c r="C49" s="49">
-        <v>1250</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="46" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="H49" s="49">
-        <v>7890</v>
+        <v>8310</v>
       </c>
       <c r="I49" s="49">
-        <v>8490</v>
+        <v>8990</v>
       </c>
       <c r="J49" s="47"/>
       <c r="K49" s="47"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" s="49">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="C50" s="49">
-        <v>1160</v>
+        <v>1199</v>
       </c>
       <c r="D50" s="47"/>
       <c r="E50" s="47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" s="48"/>
-      <c r="G50" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="H50" s="49">
-        <v>8310</v>
-      </c>
-      <c r="I50" s="49">
-        <v>8990</v>
-      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="47"/>
       <c r="K50" s="47"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="46" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B51" s="49">
-        <v>1100</v>
+        <v>1160</v>
       </c>
       <c r="C51" s="49">
-        <v>1199</v>
+        <v>1250</v>
       </c>
       <c r="D51" s="47"/>
       <c r="E51" s="47">
         <v>20</v>
       </c>
       <c r="F51" s="48"/>
-      <c r="G51" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="49">
-        <v>8310</v>
-      </c>
-      <c r="I51" s="49">
-        <v>8990</v>
-      </c>
+      <c r="G51" s="46"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="80" t="s">
+    <row r="52" spans="1:11" ht="15.75">
+      <c r="A52" s="46"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="76" t="s">
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="81"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="79"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="78"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="76"/>
     </row>
   </sheetData>
+  <sortState ref="G5:K52">
+    <sortCondition ref="G5:G52"/>
+  </sortState>
   <mergeCells count="9">
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="A52:C53"/>
+    <mergeCell ref="I53:K54"/>
+    <mergeCell ref="D53:H54"/>
+    <mergeCell ref="A53:C54"/>
     <mergeCell ref="O1:Y1"/>
     <mergeCell ref="O2:Y2"/>
     <mergeCell ref="A1:K1"/>

--- a/2020/March/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/March/Others/Price List Update_01.01.2020.xlsx
@@ -481,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +673,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -793,12 +800,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -900,37 +908,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,11 +997,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1337,7 +1355,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2437,7 +2455,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2883,7 +2901,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2954,7 +2972,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3028,7 +3046,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3099,7 +3117,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3416,7 +3434,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4516,7 +4534,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4962,7 +4980,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5033,7 +5051,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5107,7 +5125,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5178,7 +5196,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5495,7 +5513,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6595,7 +6613,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7041,7 +7059,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7112,7 +7130,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7186,7 +7204,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7257,7 +7275,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8041,48 +8059,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -9183,38 +9201,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="53" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="55" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="56"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9287,45 +9305,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10298,32 +10316,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68" t="s">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="71"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="72"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10347,10 +10365,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10365,1516 +10383,1543 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
     </row>
     <row r="3" spans="1:25" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="40" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="75" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="78">
         <v>780</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="78">
         <v>840</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78">
         <v>10</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="79">
         <v>1010</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="79">
         <v>1090</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="78">
         <v>800</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="78">
         <v>875</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47">
+      <c r="D6" s="78"/>
+      <c r="E6" s="78">
         <v>10</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="79">
         <v>1040</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="79">
         <v>1130</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47">
+      <c r="J6" s="78"/>
+      <c r="K6" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="78">
         <v>810</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="78">
         <v>880</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
+      <c r="D7" s="78"/>
+      <c r="E7" s="78">
         <v>10</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="83"/>
+      <c r="G7" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="79">
         <v>970</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="79">
         <v>1050</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
+      <c r="J7" s="78"/>
+      <c r="K7" s="78">
         <v>10</v>
       </c>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="1:25" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="78">
         <v>800</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="78">
         <v>870</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
+      <c r="D8" s="78"/>
+      <c r="E8" s="78">
         <v>10</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="83"/>
+      <c r="G8" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="79">
         <v>1100</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="79">
         <v>1199</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47">
+      <c r="J8" s="78"/>
+      <c r="K8" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="78">
         <v>790</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="78">
         <v>860</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="78">
         <v>30</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="78">
         <v>10</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="79">
         <v>1050</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="79">
         <v>1130</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="J9" s="78"/>
+      <c r="K9" s="78">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="78">
         <v>740</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="78">
         <v>800</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47">
+      <c r="D10" s="78"/>
+      <c r="E10" s="78">
         <v>10</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="83"/>
+      <c r="G10" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="79">
         <v>1100</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="79">
         <v>1190</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47">
+      <c r="J10" s="78"/>
+      <c r="K10" s="78">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="78">
         <v>790</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="78">
         <v>850</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47">
+      <c r="D11" s="78"/>
+      <c r="E11" s="78">
         <v>10</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="46" t="s">
+      <c r="F11" s="83"/>
+      <c r="G11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="79">
         <v>1330</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="79">
         <v>1450</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="78">
         <v>100</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="78">
         <v>800</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="78">
         <v>860</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47">
+      <c r="D12" s="78"/>
+      <c r="E12" s="78">
         <v>10</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="79">
         <v>1200</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="79">
         <v>1299</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47">
+      <c r="J12" s="78"/>
+      <c r="K12" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="78">
         <v>915</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="78">
         <v>990</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78">
         <v>0</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46" t="s">
+      <c r="F13" s="83"/>
+      <c r="G13" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="79">
         <v>12240</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="79">
         <v>12990</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47">
+      <c r="J13" s="78"/>
+      <c r="K13" s="78">
         <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="78">
         <v>890</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="78">
         <v>970</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47">
+      <c r="D14" s="78"/>
+      <c r="E14" s="78">
         <v>10</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="83"/>
+      <c r="G14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="79">
         <v>12090</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="79">
         <v>12990</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47">
+      <c r="J14" s="78"/>
+      <c r="K14" s="78">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="78">
         <v>920</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="78">
         <v>999</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47">
+      <c r="D15" s="78"/>
+      <c r="E15" s="78">
         <v>0</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="46" t="s">
+      <c r="F15" s="83"/>
+      <c r="G15" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="79">
         <v>12490</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="79">
         <v>13490</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47">
+      <c r="J15" s="78"/>
+      <c r="K15" s="78">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="78">
         <v>880</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="78">
         <v>950</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47">
+      <c r="D16" s="78"/>
+      <c r="E16" s="78">
         <v>20</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="46" t="s">
+      <c r="F16" s="83"/>
+      <c r="G16" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="79">
         <v>5750</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="79">
         <v>6190</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47">
+      <c r="J16" s="78"/>
+      <c r="K16" s="78">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="78">
         <v>845</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="78">
         <v>910</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47">
+      <c r="D17" s="78"/>
+      <c r="E17" s="78">
         <v>10</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="83"/>
+      <c r="G17" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="79">
         <v>17790</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="79">
         <v>18990</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47">
+      <c r="J17" s="78"/>
+      <c r="K17" s="78">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="78">
         <v>820</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="78">
         <v>890</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78">
         <v>10</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="79">
         <v>1190</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="79">
         <v>1290</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47">
+      <c r="J18" s="78"/>
+      <c r="K18" s="78">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="78">
         <v>1000</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="78">
         <v>1090</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78">
         <v>0</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46" t="s">
+      <c r="F19" s="83"/>
+      <c r="G19" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="79">
         <v>10330</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="79">
         <v>10990</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47">
+      <c r="J19" s="78"/>
+      <c r="K19" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="78">
         <v>995</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="78">
         <v>1075</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78">
         <v>0</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="79">
         <v>1100</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="79">
         <v>1190</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47">
+      <c r="J20" s="78"/>
+      <c r="K20" s="78">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="79">
         <v>880</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="79">
         <v>950</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78">
         <v>10</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="79">
         <v>1730</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="79">
         <v>1890</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47">
+      <c r="J21" s="78"/>
+      <c r="K21" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="78">
         <v>900</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="78">
         <v>970</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47">
+      <c r="D22" s="78"/>
+      <c r="E22" s="78">
         <v>10</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="83"/>
+      <c r="G22" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="79">
         <v>1250</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="79">
         <v>1350</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47">
+      <c r="J22" s="78"/>
+      <c r="K22" s="78">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="78">
         <v>1040</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="78">
         <v>1120</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78">
         <v>20</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="83"/>
+      <c r="G23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="79">
         <v>1370</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="79">
         <v>1490</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47">
+      <c r="J23" s="78"/>
+      <c r="K23" s="78">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="79">
         <v>1040</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="79">
         <v>1120</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47">
+      <c r="D24" s="78"/>
+      <c r="E24" s="78">
         <v>20</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="79">
         <v>3610</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="79">
         <v>3890</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47">
+      <c r="J24" s="78"/>
+      <c r="K24" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="79">
         <v>930</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="79">
         <v>999</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47">
+      <c r="D25" s="78"/>
+      <c r="E25" s="78">
         <v>10</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="83"/>
+      <c r="G25" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="79">
         <v>3890</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="79">
         <v>4190</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47">
+      <c r="J25" s="78"/>
+      <c r="K25" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="79">
         <v>1190</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="79">
         <v>1290</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47">
+      <c r="D26" s="78"/>
+      <c r="E26" s="78">
         <v>10</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="79">
         <v>4280</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="79">
         <v>4590</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="78">
         <v>300</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="79">
         <v>1290</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="79">
         <v>1390</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47">
+      <c r="D27" s="78"/>
+      <c r="E27" s="78">
         <v>10</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="46" t="s">
+      <c r="F27" s="83"/>
+      <c r="G27" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="79">
         <v>5650</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="79">
         <v>6150</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47">
+      <c r="J27" s="78"/>
+      <c r="K27" s="78">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="79">
         <v>1170</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="79">
         <v>1270</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78">
         <v>10</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="46" t="s">
+      <c r="F28" s="83"/>
+      <c r="G28" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="79">
         <v>5020</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="79">
         <v>5390</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47">
+      <c r="J28" s="78"/>
+      <c r="K28" s="78">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="79">
         <v>1270</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="79">
         <v>1370</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47">
+      <c r="D29" s="78"/>
+      <c r="E29" s="78">
         <v>10</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="46" t="s">
+      <c r="F29" s="83"/>
+      <c r="G29" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="79">
         <v>5280</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="79">
         <v>5690</v>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47">
+      <c r="J29" s="78"/>
+      <c r="K29" s="78">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="79">
         <v>1190</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="79">
         <v>1290</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47">
+      <c r="D30" s="78"/>
+      <c r="E30" s="78">
         <v>10</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="83"/>
+      <c r="G30" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="79">
         <v>4180</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="79">
         <v>4690</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47">
+      <c r="J30" s="78"/>
+      <c r="K30" s="78">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="79">
         <v>2780</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="79">
         <v>2990</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47">
+      <c r="D31" s="78"/>
+      <c r="E31" s="78">
         <v>30</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="46" t="s">
+      <c r="F31" s="83"/>
+      <c r="G31" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="79">
         <v>5100</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="79">
         <v>5490</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="78">
         <v>70</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="79">
         <v>2770</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="79">
         <v>2990</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47">
+      <c r="D32" s="78"/>
+      <c r="E32" s="78">
         <v>30</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="83"/>
+      <c r="G32" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="79">
         <v>5560</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="79">
         <v>5990</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="78">
         <v>200</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="78">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="79">
         <v>6540</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="79">
         <v>6990</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="46" t="s">
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="79">
         <v>5390</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="79">
         <v>5790</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="78">
         <v>200</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="78">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="79">
         <v>8290</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="79">
         <v>8890</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="46" t="s">
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="79">
         <v>3560</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="79">
         <v>3840</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="78">
         <v>400</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="79">
         <v>8340</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="79">
         <v>8990</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47">
+      <c r="D35" s="78"/>
+      <c r="E35" s="78">
         <v>100</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="83"/>
+      <c r="G35" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="79">
         <v>3340</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="79">
         <v>3590</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="78">
         <v>320</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="79">
         <v>9190</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="79">
         <v>9990</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47">
+      <c r="D36" s="78"/>
+      <c r="E36" s="78">
         <v>170</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="46" t="s">
+      <c r="F36" s="83"/>
+      <c r="G36" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="79">
         <v>4500</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="79">
         <v>4790</v>
       </c>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47">
+      <c r="J36" s="78"/>
+      <c r="K36" s="78">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="79">
         <v>5290</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="79">
         <v>5690</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47">
+      <c r="D37" s="78"/>
+      <c r="E37" s="78">
         <v>80</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="46" t="s">
+      <c r="F37" s="83"/>
+      <c r="G37" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="79">
         <v>5390</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="79">
         <v>5790</v>
       </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47">
+      <c r="J37" s="78"/>
+      <c r="K37" s="78">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="79">
         <v>5010</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="79">
         <v>5390</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47">
+      <c r="D38" s="78"/>
+      <c r="E38" s="78">
         <v>70</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="52" t="s">
+      <c r="F38" s="83"/>
+      <c r="G38" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="79">
         <v>4970</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="79">
         <v>5290</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47">
+      <c r="J38" s="78"/>
+      <c r="K38" s="78">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="79">
         <v>5170</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="79">
         <v>5499</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="78">
         <v>50</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="78">
         <v>50</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="46" t="s">
+      <c r="F39" s="83"/>
+      <c r="G39" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="79">
         <v>4015</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="79">
         <v>4390</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47">
+      <c r="J39" s="78"/>
+      <c r="K39" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="79">
         <v>5750</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="79">
         <v>6190</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47">
+      <c r="D40" s="78"/>
+      <c r="E40" s="78">
         <v>80</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="46" t="s">
+      <c r="F40" s="83"/>
+      <c r="G40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="79">
         <v>3710</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="79">
         <v>3990</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J40" s="78">
         <v>200</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="78">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="79">
         <v>5550</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="79">
         <v>5990</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47">
+      <c r="D41" s="78"/>
+      <c r="E41" s="78">
         <v>60</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="46" t="s">
+      <c r="F41" s="83"/>
+      <c r="G41" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="79">
         <v>3620</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="79">
         <v>3890</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="78">
         <v>320</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="79">
         <v>5940</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="79">
         <v>6390</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47">
+      <c r="D42" s="78"/>
+      <c r="E42" s="78">
         <v>90</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="46" t="s">
+      <c r="F42" s="83"/>
+      <c r="G42" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="79">
         <v>4080</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="79">
         <v>4390</v>
       </c>
-      <c r="J42" s="47">
+      <c r="J42" s="78">
         <v>200</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="78">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="79">
         <v>5940</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="79">
         <v>6390</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47">
+      <c r="D43" s="78"/>
+      <c r="E43" s="78">
         <v>90</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="46" t="s">
+      <c r="F43" s="83"/>
+      <c r="G43" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="79">
         <v>4220</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="79">
         <v>4540</v>
       </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47">
+      <c r="J43" s="78"/>
+      <c r="K43" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="79">
         <v>6030</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="79">
         <v>6490</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47">
+      <c r="D44" s="78"/>
+      <c r="E44" s="78">
         <v>0</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="46" t="s">
+      <c r="F44" s="83"/>
+      <c r="G44" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H44" s="79">
         <v>3710</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="79">
         <v>3990</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47">
+      <c r="J44" s="78"/>
+      <c r="K44" s="78">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="79">
         <v>6470</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="79">
         <v>6990</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47">
+      <c r="D45" s="78"/>
+      <c r="E45" s="78">
         <v>0</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="46" t="s">
+      <c r="F45" s="83"/>
+      <c r="G45" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="79">
         <v>12590</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="79">
         <v>13490</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47">
+      <c r="J45" s="78"/>
+      <c r="K45" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="79">
         <v>1220</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="79">
         <v>1320</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47">
+      <c r="D46" s="78"/>
+      <c r="E46" s="78">
         <v>20</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="46" t="s">
+      <c r="F46" s="83"/>
+      <c r="G46" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="79">
         <v>7350</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I46" s="79">
         <v>7990</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47">
+      <c r="J46" s="78"/>
+      <c r="K46" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="79">
         <v>1460</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="79">
         <v>1590</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47">
+      <c r="D47" s="78"/>
+      <c r="E47" s="78">
         <v>20</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="46" t="s">
+      <c r="F47" s="83"/>
+      <c r="G47" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="79">
         <v>7890</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="79">
         <v>8490</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="79">
         <v>1070</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="79">
         <v>1160</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47">
+      <c r="D48" s="78"/>
+      <c r="E48" s="78">
         <v>0</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="46" t="s">
+      <c r="F48" s="83"/>
+      <c r="G48" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="79">
         <v>8310</v>
       </c>
-      <c r="I48" s="49">
+      <c r="I48" s="79">
         <v>8990</v>
       </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="79">
         <v>1080</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="79">
         <v>1160</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47">
+      <c r="D49" s="78"/>
+      <c r="E49" s="78">
         <v>10</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="46" t="s">
+      <c r="F49" s="83"/>
+      <c r="G49" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="79">
         <v>8310</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I49" s="79">
         <v>8990</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="79">
         <v>1100</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="79">
         <v>1199</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47">
+      <c r="D50" s="78"/>
+      <c r="E50" s="78">
         <v>20</v>
       </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="79">
         <v>1160</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="79">
         <v>1250</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47">
+      <c r="D51" s="78"/>
+      <c r="E51" s="78">
         <v>20</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="46"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53" t="s">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="73" t="s">
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="J53" s="73"/>
-      <c r="K53" s="74"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="78"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="76"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
     </row>
   </sheetData>
   <sortState ref="G5:K52">

--- a/2020/March/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/March/Others/Price List Update_01.01.2020.xlsx
@@ -910,6 +910,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,45 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1355,7 +1355,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2455,7 +2455,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2901,7 +2901,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2972,7 +2972,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3046,7 +3046,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3117,7 +3117,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3434,7 +3434,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4534,7 +4534,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4980,7 +4980,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5051,7 +5051,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5125,7 +5125,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5196,7 +5196,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5513,7 +5513,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6613,7 +6613,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7059,7 +7059,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7130,7 +7130,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7204,7 +7204,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7275,7 +7275,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8059,48 +8059,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -9201,38 +9201,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="43" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="45" t="s">
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="48"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9305,45 +9305,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10316,32 +10316,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58" t="s">
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="61"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="62"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10367,8 +10367,8 @@
   </sheetPr>
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="A1:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10387,1539 +10387,1539 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
     </row>
     <row r="3" spans="1:25" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:25" s="40" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="46" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="49">
         <v>780</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="49">
         <v>840</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49">
         <v>10</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="77" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="50">
         <v>1010</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="50">
         <v>1090</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="49">
         <v>800</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="49">
         <v>875</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49">
         <v>10</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="77" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="50">
         <v>1040</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="50">
         <v>1130</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="49">
         <v>810</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="49">
         <v>880</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49">
         <v>10</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="80" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="50">
         <v>970</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="50">
         <v>1050</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49">
         <v>10</v>
       </c>
-      <c r="N7" s="73"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:25" ht="15.75">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="49">
         <v>800</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="49">
         <v>870</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49">
         <v>10</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="77" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="50">
         <v>1100</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="50">
         <v>1199</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78">
+      <c r="J8" s="49"/>
+      <c r="K8" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="49">
         <v>790</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="49">
         <v>860</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="49">
         <v>30</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="49">
         <v>10</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="77" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="50">
         <v>1050</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="50">
         <v>1130</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="49">
         <v>740</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="49">
         <v>800</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49">
         <v>10</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="77" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="50">
         <v>1100</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="50">
         <v>1190</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="49">
         <v>790</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="49">
         <v>850</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49">
         <v>10</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="77" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="50">
         <v>1330</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="50">
         <v>1450</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="49">
         <v>100</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="49">
         <v>800</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="49">
         <v>860</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49">
         <v>10</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="50">
         <v>1200</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="50">
         <v>1299</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78">
+      <c r="J12" s="49"/>
+      <c r="K12" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="49">
         <v>915</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="49">
         <v>990</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49">
         <v>0</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="77" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="50">
         <v>12240</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="50">
         <v>12990</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49">
         <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="49">
         <v>890</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="49">
         <v>970</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49">
         <v>10</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="77" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="50">
         <v>12090</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="50">
         <v>12990</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78">
+      <c r="J14" s="49"/>
+      <c r="K14" s="49">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="49">
         <v>920</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="49">
         <v>999</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49">
         <v>0</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="50">
         <v>12490</v>
       </c>
-      <c r="I15" s="79">
+      <c r="I15" s="50">
         <v>13490</v>
       </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78">
+      <c r="J15" s="49"/>
+      <c r="K15" s="49">
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="49">
         <v>880</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="49">
         <v>950</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49">
         <v>20</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="77" t="s">
+      <c r="F16" s="54"/>
+      <c r="G16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="50">
         <v>5750</v>
       </c>
-      <c r="I16" s="79">
+      <c r="I16" s="50">
         <v>6190</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78">
+      <c r="J16" s="49"/>
+      <c r="K16" s="49">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="49">
         <v>845</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="49">
         <v>910</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49">
         <v>10</v>
       </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="77" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="50">
         <v>17790</v>
       </c>
-      <c r="I17" s="79">
+      <c r="I17" s="50">
         <v>18990</v>
       </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78">
+      <c r="J17" s="49"/>
+      <c r="K17" s="49">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="49">
         <v>820</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="49">
         <v>890</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49">
         <v>10</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="77" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="50">
         <v>1190</v>
       </c>
-      <c r="I18" s="79">
+      <c r="I18" s="50">
         <v>1290</v>
       </c>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78">
+      <c r="J18" s="49"/>
+      <c r="K18" s="49">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="49">
         <v>1000</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="49">
         <v>1090</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49">
         <v>0</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="77" t="s">
+      <c r="F19" s="54"/>
+      <c r="G19" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="50">
         <v>10330</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="50">
         <v>10990</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78">
+      <c r="J19" s="49"/>
+      <c r="K19" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="49">
         <v>995</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="49">
         <v>1075</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49">
         <v>0</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="77" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="50">
         <v>1100</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="50">
         <v>1190</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78">
+      <c r="J20" s="49"/>
+      <c r="K20" s="49">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="50">
         <v>880</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="50">
         <v>950</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49">
         <v>10</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="77" t="s">
+      <c r="F21" s="54"/>
+      <c r="G21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="50">
         <v>1730</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="50">
         <v>1890</v>
       </c>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78">
+      <c r="J21" s="49"/>
+      <c r="K21" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="49">
         <v>900</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="49">
         <v>970</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49">
         <v>10</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="77" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="50">
         <v>1250</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="50">
         <v>1350</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78">
+      <c r="J22" s="49"/>
+      <c r="K22" s="49">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="49">
         <v>1040</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="49">
         <v>1120</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49">
         <v>20</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="77" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="50">
         <v>1370</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="50">
         <v>1490</v>
       </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78">
+      <c r="J23" s="49"/>
+      <c r="K23" s="49">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="50">
         <v>1040</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="50">
         <v>1120</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49">
         <v>20</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="77" t="s">
+      <c r="F24" s="54"/>
+      <c r="G24" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="50">
         <v>3610</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="50">
         <v>3890</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78">
+      <c r="J24" s="49"/>
+      <c r="K24" s="49">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="50">
         <v>930</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="50">
         <v>999</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49">
         <v>10</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="77" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="50">
         <v>3890</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="50">
         <v>4190</v>
       </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78">
+      <c r="J25" s="49"/>
+      <c r="K25" s="49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <v>1190</v>
+      </c>
+      <c r="C26" s="50">
+        <v>1290</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49">
+        <v>10</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="50">
+        <v>4280</v>
+      </c>
+      <c r="I26" s="50">
+        <v>4590</v>
+      </c>
+      <c r="J26" s="49">
+        <v>300</v>
+      </c>
+      <c r="K26" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="50">
+        <v>1290</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1390</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49">
+        <v>10</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="50">
+        <v>5650</v>
+      </c>
+      <c r="I27" s="50">
+        <v>6150</v>
+      </c>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="50">
+        <v>1170</v>
+      </c>
+      <c r="C28" s="50">
+        <v>1270</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49">
+        <v>10</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="50">
+        <v>5020</v>
+      </c>
+      <c r="I28" s="50">
+        <v>5390</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="50">
+        <v>1270</v>
+      </c>
+      <c r="C29" s="50">
+        <v>1370</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49">
+        <v>10</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="50">
+        <v>5280</v>
+      </c>
+      <c r="I29" s="50">
+        <v>5690</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="50">
+        <v>1190</v>
+      </c>
+      <c r="C30" s="50">
+        <v>1290</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49">
+        <v>10</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="50">
+        <v>4180</v>
+      </c>
+      <c r="I30" s="50">
+        <v>4690</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="50">
+        <v>2780</v>
+      </c>
+      <c r="C31" s="50">
+        <v>2990</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49">
+        <v>30</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="50">
+        <v>5100</v>
+      </c>
+      <c r="I31" s="50">
+        <v>5490</v>
+      </c>
+      <c r="J31" s="49">
+        <v>70</v>
+      </c>
+      <c r="K31" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="50">
+        <v>2770</v>
+      </c>
+      <c r="C32" s="50">
+        <v>2990</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49">
+        <v>30</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="50">
+        <v>5560</v>
+      </c>
+      <c r="I32" s="50">
+        <v>5990</v>
+      </c>
+      <c r="J32" s="49">
+        <v>200</v>
+      </c>
+      <c r="K32" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="50">
+        <v>6540</v>
+      </c>
+      <c r="C33" s="50">
+        <v>6990</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="50">
+        <v>5390</v>
+      </c>
+      <c r="I33" s="50">
+        <v>5790</v>
+      </c>
+      <c r="J33" s="49">
+        <v>200</v>
+      </c>
+      <c r="K33" s="49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="50">
+        <v>8290</v>
+      </c>
+      <c r="C34" s="50">
+        <v>8890</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="50">
+        <v>3560</v>
+      </c>
+      <c r="I34" s="50">
+        <v>3840</v>
+      </c>
+      <c r="J34" s="49">
+        <v>400</v>
+      </c>
+      <c r="K34" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="50">
+        <v>8340</v>
+      </c>
+      <c r="C35" s="50">
+        <v>8990</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49">
+        <v>100</v>
+      </c>
+      <c r="F35" s="54"/>
+      <c r="G35" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="50">
+        <v>3340</v>
+      </c>
+      <c r="I35" s="50">
+        <v>3590</v>
+      </c>
+      <c r="J35" s="49">
+        <v>320</v>
+      </c>
+      <c r="K35" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="50">
+        <v>9190</v>
+      </c>
+      <c r="C36" s="50">
+        <v>9990</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49">
+        <v>170</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="50">
+        <v>4500</v>
+      </c>
+      <c r="I36" s="50">
+        <v>4790</v>
+      </c>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="50">
+        <v>5290</v>
+      </c>
+      <c r="C37" s="50">
+        <v>5690</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49">
+        <v>80</v>
+      </c>
+      <c r="F37" s="54"/>
+      <c r="G37" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="50">
+        <v>5390</v>
+      </c>
+      <c r="I37" s="50">
+        <v>5790</v>
+      </c>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="50">
+        <v>5010</v>
+      </c>
+      <c r="C38" s="50">
+        <v>5390</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49">
+        <v>70</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="50">
+        <v>4970</v>
+      </c>
+      <c r="I38" s="50">
+        <v>5290</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="A39" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="50">
+        <v>5170</v>
+      </c>
+      <c r="C39" s="50">
+        <v>5499</v>
+      </c>
+      <c r="D39" s="49">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="79">
-        <v>1190</v>
-      </c>
-      <c r="C26" s="79">
-        <v>1290</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78">
+      <c r="E39" s="49">
+        <v>50</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="50">
+        <v>4015</v>
+      </c>
+      <c r="I39" s="50">
+        <v>4390</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75">
+      <c r="A40" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="50">
+        <v>5750</v>
+      </c>
+      <c r="C40" s="50">
+        <v>6190</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49">
+        <v>80</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="50">
+        <v>3710</v>
+      </c>
+      <c r="I40" s="50">
+        <v>3990</v>
+      </c>
+      <c r="J40" s="49">
+        <v>200</v>
+      </c>
+      <c r="K40" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="50">
+        <v>5550</v>
+      </c>
+      <c r="C41" s="50">
+        <v>5990</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49">
+        <v>60</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="50">
+        <v>3620</v>
+      </c>
+      <c r="I41" s="50">
+        <v>3890</v>
+      </c>
+      <c r="J41" s="49">
+        <v>320</v>
+      </c>
+      <c r="K41" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="50">
+        <v>5940</v>
+      </c>
+      <c r="C42" s="50">
+        <v>6390</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49">
+        <v>90</v>
+      </c>
+      <c r="F42" s="54"/>
+      <c r="G42" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="50">
+        <v>4080</v>
+      </c>
+      <c r="I42" s="50">
+        <v>4390</v>
+      </c>
+      <c r="J42" s="49">
+        <v>200</v>
+      </c>
+      <c r="K42" s="49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="50">
+        <v>5940</v>
+      </c>
+      <c r="C43" s="50">
+        <v>6390</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49">
+        <v>90</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="50">
+        <v>4220</v>
+      </c>
+      <c r="I43" s="50">
+        <v>4540</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="50">
+        <v>6030</v>
+      </c>
+      <c r="C44" s="50">
+        <v>6490</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49">
+        <v>0</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="50">
+        <v>3710</v>
+      </c>
+      <c r="I44" s="50">
+        <v>3990</v>
+      </c>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="50">
+        <v>6470</v>
+      </c>
+      <c r="C45" s="50">
+        <v>6990</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49">
+        <v>0</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="50">
+        <v>12590</v>
+      </c>
+      <c r="I45" s="50">
+        <v>13490</v>
+      </c>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="50">
+        <v>1220</v>
+      </c>
+      <c r="C46" s="50">
+        <v>1320</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49">
+        <v>20</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="50">
+        <v>7350</v>
+      </c>
+      <c r="I46" s="50">
+        <v>7990</v>
+      </c>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
+      <c r="A47" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="50">
+        <v>1460</v>
+      </c>
+      <c r="C47" s="50">
+        <v>1590</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49">
+        <v>20</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="50">
+        <v>7890</v>
+      </c>
+      <c r="I47" s="50">
+        <v>8490</v>
+      </c>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="50">
+        <v>1070</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1160</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49">
+        <v>0</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="50">
+        <v>8310</v>
+      </c>
+      <c r="I48" s="50">
+        <v>8990</v>
+      </c>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="50">
+        <v>1080</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1160</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49">
         <v>10</v>
       </c>
-      <c r="F26" s="83"/>
-      <c r="G26" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="79">
-        <v>4280</v>
-      </c>
-      <c r="I26" s="79">
-        <v>4590</v>
-      </c>
-      <c r="J26" s="78">
-        <v>300</v>
-      </c>
-      <c r="K26" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="79">
-        <v>1290</v>
-      </c>
-      <c r="C27" s="79">
-        <v>1390</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78">
-        <v>10</v>
-      </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="79">
-        <v>5650</v>
-      </c>
-      <c r="I27" s="79">
-        <v>6150</v>
-      </c>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="79">
-        <v>1170</v>
-      </c>
-      <c r="C28" s="79">
-        <v>1270</v>
-      </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78">
-        <v>10</v>
-      </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="77" t="s">
+      <c r="F49" s="54"/>
+      <c r="G49" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="50">
+        <v>8310</v>
+      </c>
+      <c r="I49" s="50">
+        <v>8990</v>
+      </c>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="50">
+        <v>1100</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1199</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49">
         <v>20</v>
       </c>
-      <c r="H28" s="79">
-        <v>5020</v>
-      </c>
-      <c r="I28" s="79">
-        <v>5390</v>
-      </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="79">
-        <v>1270</v>
-      </c>
-      <c r="C29" s="79">
-        <v>1370</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78">
-        <v>10</v>
-      </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="79">
-        <v>5280</v>
-      </c>
-      <c r="I29" s="79">
-        <v>5690</v>
-      </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="79">
-        <v>1190</v>
-      </c>
-      <c r="C30" s="79">
-        <v>1290</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78">
-        <v>10</v>
-      </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="79">
-        <v>4180</v>
-      </c>
-      <c r="I30" s="79">
-        <v>4690</v>
-      </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="79">
-        <v>2780</v>
-      </c>
-      <c r="C31" s="79">
-        <v>2990</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78">
-        <v>30</v>
-      </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="79">
-        <v>5100</v>
-      </c>
-      <c r="I31" s="79">
-        <v>5490</v>
-      </c>
-      <c r="J31" s="78">
-        <v>70</v>
-      </c>
-      <c r="K31" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="79">
-        <v>2770</v>
-      </c>
-      <c r="C32" s="79">
-        <v>2990</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78">
-        <v>30</v>
-      </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="79">
-        <v>5560</v>
-      </c>
-      <c r="I32" s="79">
-        <v>5990</v>
-      </c>
-      <c r="J32" s="78">
-        <v>200</v>
-      </c>
-      <c r="K32" s="78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="79">
-        <v>6540</v>
-      </c>
-      <c r="C33" s="79">
-        <v>6990</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="79">
-        <v>5390</v>
-      </c>
-      <c r="I33" s="79">
-        <v>5790</v>
-      </c>
-      <c r="J33" s="78">
-        <v>200</v>
-      </c>
-      <c r="K33" s="78">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="79">
-        <v>8290</v>
-      </c>
-      <c r="C34" s="79">
-        <v>8890</v>
-      </c>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="79">
-        <v>3560</v>
-      </c>
-      <c r="I34" s="79">
-        <v>3840</v>
-      </c>
-      <c r="J34" s="78">
-        <v>400</v>
-      </c>
-      <c r="K34" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="79">
-        <v>8340</v>
-      </c>
-      <c r="C35" s="79">
-        <v>8990</v>
-      </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78">
-        <v>100</v>
-      </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="79">
-        <v>3340</v>
-      </c>
-      <c r="I35" s="79">
-        <v>3590</v>
-      </c>
-      <c r="J35" s="78">
-        <v>320</v>
-      </c>
-      <c r="K35" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="79">
-        <v>9190</v>
-      </c>
-      <c r="C36" s="79">
-        <v>9990</v>
-      </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78">
-        <v>170</v>
-      </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="79">
-        <v>4500</v>
-      </c>
-      <c r="I36" s="79">
-        <v>4790</v>
-      </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="79">
-        <v>5290</v>
-      </c>
-      <c r="C37" s="79">
-        <v>5690</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78">
-        <v>80</v>
-      </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="79">
-        <v>5390</v>
-      </c>
-      <c r="I37" s="79">
-        <v>5790</v>
-      </c>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="79">
-        <v>5010</v>
-      </c>
-      <c r="C38" s="79">
-        <v>5390</v>
-      </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78">
-        <v>70</v>
-      </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="79">
-        <v>4970</v>
-      </c>
-      <c r="I38" s="79">
-        <v>5290</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="79">
-        <v>5170</v>
-      </c>
-      <c r="C39" s="79">
-        <v>5499</v>
-      </c>
-      <c r="D39" s="78">
-        <v>50</v>
-      </c>
-      <c r="E39" s="78">
-        <v>50</v>
-      </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="79">
-        <v>4015</v>
-      </c>
-      <c r="I39" s="79">
-        <v>4390</v>
-      </c>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="79">
-        <v>5750</v>
-      </c>
-      <c r="C40" s="79">
-        <v>6190</v>
-      </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78">
-        <v>80</v>
-      </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="79">
-        <v>3710</v>
-      </c>
-      <c r="I40" s="79">
-        <v>3990</v>
-      </c>
-      <c r="J40" s="78">
-        <v>200</v>
-      </c>
-      <c r="K40" s="78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="79">
-        <v>5550</v>
-      </c>
-      <c r="C41" s="79">
-        <v>5990</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78">
-        <v>60</v>
-      </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="79">
-        <v>3620</v>
-      </c>
-      <c r="I41" s="79">
-        <v>3890</v>
-      </c>
-      <c r="J41" s="78">
-        <v>320</v>
-      </c>
-      <c r="K41" s="78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="79">
-        <v>5940</v>
-      </c>
-      <c r="C42" s="79">
-        <v>6390</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78">
-        <v>90</v>
-      </c>
-      <c r="F42" s="83"/>
-      <c r="G42" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="79">
-        <v>4080</v>
-      </c>
-      <c r="I42" s="79">
-        <v>4390</v>
-      </c>
-      <c r="J42" s="78">
-        <v>200</v>
-      </c>
-      <c r="K42" s="78">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="79">
-        <v>5940</v>
-      </c>
-      <c r="C43" s="79">
-        <v>6390</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78">
-        <v>90</v>
-      </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="79">
-        <v>4220</v>
-      </c>
-      <c r="I43" s="79">
-        <v>4540</v>
-      </c>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="79">
-        <v>6030</v>
-      </c>
-      <c r="C44" s="79">
-        <v>6490</v>
-      </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78">
-        <v>0</v>
-      </c>
-      <c r="F44" s="83"/>
-      <c r="G44" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="79">
-        <v>3710</v>
-      </c>
-      <c r="I44" s="79">
-        <v>3990</v>
-      </c>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="79">
-        <v>6470</v>
-      </c>
-      <c r="C45" s="79">
-        <v>6990</v>
-      </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78">
-        <v>0</v>
-      </c>
-      <c r="F45" s="83"/>
-      <c r="G45" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="79">
-        <v>12590</v>
-      </c>
-      <c r="I45" s="79">
-        <v>13490</v>
-      </c>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="79">
-        <v>1220</v>
-      </c>
-      <c r="C46" s="79">
-        <v>1320</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78">
+      <c r="F50" s="54"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="50">
+        <v>1160</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1250</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49">
         <v>20</v>
       </c>
-      <c r="F46" s="83"/>
-      <c r="G46" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="79">
-        <v>7350</v>
-      </c>
-      <c r="I46" s="79">
-        <v>7990</v>
-      </c>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="79">
-        <v>1460</v>
-      </c>
-      <c r="C47" s="79">
-        <v>1590</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78">
-        <v>20</v>
-      </c>
-      <c r="F47" s="83"/>
-      <c r="G47" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="79">
-        <v>7890</v>
-      </c>
-      <c r="I47" s="79">
-        <v>8490</v>
-      </c>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="79">
-        <v>1070</v>
-      </c>
-      <c r="C48" s="79">
-        <v>1160</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78">
-        <v>0</v>
-      </c>
-      <c r="F48" s="83"/>
-      <c r="G48" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="79">
-        <v>8310</v>
-      </c>
-      <c r="I48" s="79">
-        <v>8990</v>
-      </c>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="79">
-        <v>1080</v>
-      </c>
-      <c r="C49" s="79">
-        <v>1160</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78">
-        <v>10</v>
-      </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="79">
-        <v>8310</v>
-      </c>
-      <c r="I49" s="79">
-        <v>8990</v>
-      </c>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="79">
-        <v>1100</v>
-      </c>
-      <c r="C50" s="79">
-        <v>1199</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78">
-        <v>20</v>
-      </c>
-      <c r="F50" s="83"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="79">
-        <v>1160</v>
-      </c>
-      <c r="C51" s="79">
-        <v>1250</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78">
-        <v>20</v>
-      </c>
-      <c r="F51" s="83"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="77"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43" t="s">
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="63" t="s">
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="77"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="68"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="79"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
     </row>
   </sheetData>
   <sortState ref="G5:K52">

--- a/2020/March/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/March/Others/Price List Update_01.01.2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>BL98</t>
+  </si>
+  <si>
+    <t>D92</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1358,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2455,7 +2458,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2901,7 +2904,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2972,7 +2975,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3046,7 +3049,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3117,7 +3120,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3434,7 +3437,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4534,7 +4537,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4980,7 +4983,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5051,7 +5054,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5125,7 +5128,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5196,7 +5199,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5513,7 +5516,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6613,7 +6616,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7059,7 +7062,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7130,7 +7133,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7204,7 +7207,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7275,7 +7278,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10367,7 +10370,7 @@
   </sheetPr>
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I53" sqref="A1:K54"/>
     </sheetView>
   </sheetViews>
@@ -11251,41 +11254,29 @@
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="48" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B31" s="50">
-        <v>2780</v>
+        <v>1020</v>
       </c>
       <c r="C31" s="50">
-        <v>2990</v>
+        <v>1099</v>
       </c>
       <c r="D31" s="49"/>
-      <c r="E31" s="49">
-        <v>30</v>
-      </c>
+      <c r="E31" s="49"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="50">
-        <v>5100</v>
-      </c>
-      <c r="I31" s="50">
-        <v>5490</v>
-      </c>
-      <c r="J31" s="49">
-        <v>70</v>
-      </c>
-      <c r="K31" s="49">
-        <v>0</v>
-      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="48" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B32" s="50">
-        <v>2770</v>
+        <v>2780</v>
       </c>
       <c r="C32" s="50">
         <v>2990</v>
@@ -11296,105 +11287,105 @@
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H32" s="50">
-        <v>5560</v>
+        <v>5100</v>
       </c>
       <c r="I32" s="50">
-        <v>5990</v>
+        <v>5490</v>
       </c>
       <c r="J32" s="49">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K32" s="49">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B33" s="50">
-        <v>6540</v>
+        <v>2770</v>
       </c>
       <c r="C33" s="50">
-        <v>6990</v>
+        <v>2990</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="49">
+        <v>30</v>
+      </c>
       <c r="F33" s="54"/>
       <c r="G33" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33" s="50">
-        <v>5390</v>
+        <v>5560</v>
       </c>
       <c r="I33" s="50">
-        <v>5790</v>
+        <v>5990</v>
       </c>
       <c r="J33" s="49">
         <v>200</v>
       </c>
       <c r="K33" s="49">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="48" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B34" s="50">
-        <v>8290</v>
+        <v>6540</v>
       </c>
       <c r="C34" s="50">
-        <v>8890</v>
+        <v>6990</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
       <c r="F34" s="54"/>
       <c r="G34" s="48" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H34" s="50">
-        <v>3560</v>
+        <v>5390</v>
       </c>
       <c r="I34" s="50">
-        <v>3840</v>
+        <v>5790</v>
       </c>
       <c r="J34" s="49">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K34" s="49">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="48" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B35" s="50">
-        <v>8340</v>
+        <v>8290</v>
       </c>
       <c r="C35" s="50">
-        <v>8990</v>
+        <v>8890</v>
       </c>
       <c r="D35" s="49"/>
-      <c r="E35" s="49">
-        <v>100</v>
-      </c>
+      <c r="E35" s="49"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="52" t="s">
-        <v>35</v>
+      <c r="G35" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="H35" s="50">
-        <v>3340</v>
+        <v>3560</v>
       </c>
       <c r="I35" s="50">
-        <v>3590</v>
+        <v>3840</v>
       </c>
       <c r="J35" s="49">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K35" s="49">
         <v>0</v>
@@ -11402,218 +11393,218 @@
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="48" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B36" s="50">
-        <v>9190</v>
+        <v>8340</v>
       </c>
       <c r="C36" s="50">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="49">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F36" s="54"/>
-      <c r="G36" s="48" t="s">
-        <v>108</v>
+      <c r="G36" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="H36" s="50">
-        <v>4500</v>
+        <v>3340</v>
       </c>
       <c r="I36" s="50">
-        <v>4790</v>
-      </c>
-      <c r="J36" s="49"/>
+        <v>3590</v>
+      </c>
+      <c r="J36" s="49">
+        <v>320</v>
+      </c>
       <c r="K36" s="49">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="50">
-        <v>5290</v>
+        <v>9190</v>
       </c>
       <c r="C37" s="50">
-        <v>5690</v>
+        <v>9990</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="49">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="48" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="H37" s="50">
-        <v>5390</v>
+        <v>4500</v>
       </c>
       <c r="I37" s="50">
-        <v>5790</v>
+        <v>4790</v>
       </c>
       <c r="J37" s="49"/>
       <c r="K37" s="49">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="48" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B38" s="50">
-        <v>5010</v>
+        <v>5290</v>
       </c>
       <c r="C38" s="50">
-        <v>5390</v>
+        <v>5690</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F38" s="54"/>
-      <c r="G38" s="53" t="s">
-        <v>27</v>
+      <c r="G38" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="H38" s="50">
-        <v>4970</v>
+        <v>5390</v>
       </c>
       <c r="I38" s="50">
-        <v>5290</v>
+        <v>5790</v>
       </c>
       <c r="J38" s="49"/>
       <c r="K38" s="49">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="48" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B39" s="50">
-        <v>5170</v>
+        <v>5010</v>
       </c>
       <c r="C39" s="50">
-        <v>5499</v>
-      </c>
-      <c r="D39" s="49">
-        <v>50</v>
-      </c>
+        <v>5390</v>
+      </c>
+      <c r="D39" s="49"/>
       <c r="E39" s="49">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F39" s="54"/>
-      <c r="G39" s="48" t="s">
-        <v>52</v>
+      <c r="G39" s="53" t="s">
+        <v>27</v>
       </c>
       <c r="H39" s="50">
-        <v>4015</v>
+        <v>4970</v>
       </c>
       <c r="I39" s="50">
-        <v>4390</v>
+        <v>5290</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="49">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="48" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B40" s="50">
-        <v>5750</v>
+        <v>5170</v>
       </c>
       <c r="C40" s="50">
-        <v>6190</v>
-      </c>
-      <c r="D40" s="49"/>
+        <v>5499</v>
+      </c>
+      <c r="D40" s="49">
+        <v>50</v>
+      </c>
       <c r="E40" s="49">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="48" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H40" s="50">
-        <v>3710</v>
+        <v>4015</v>
       </c>
       <c r="I40" s="50">
-        <v>3990</v>
-      </c>
-      <c r="J40" s="49">
-        <v>200</v>
-      </c>
+        <v>4390</v>
+      </c>
+      <c r="J40" s="49"/>
       <c r="K40" s="49">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="48" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B41" s="50">
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="C41" s="50">
-        <v>5990</v>
+        <v>6190</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="49">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="48" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="H41" s="50">
-        <v>3620</v>
+        <v>3710</v>
       </c>
       <c r="I41" s="50">
-        <v>3890</v>
+        <v>3990</v>
       </c>
       <c r="J41" s="49">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K41" s="49">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="48" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B42" s="50">
-        <v>5940</v>
+        <v>5550</v>
       </c>
       <c r="C42" s="50">
-        <v>6390</v>
+        <v>5990</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="49">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="48" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H42" s="50">
-        <v>4080</v>
+        <v>3620</v>
       </c>
       <c r="I42" s="50">
-        <v>4390</v>
+        <v>3890</v>
       </c>
       <c r="J42" s="49">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K42" s="49">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="48" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B43" s="50">
         <v>5940</v>
@@ -11627,42 +11618,44 @@
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="48" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="H43" s="50">
-        <v>4220</v>
+        <v>4080</v>
       </c>
       <c r="I43" s="50">
-        <v>4540</v>
-      </c>
-      <c r="J43" s="49"/>
+        <v>4390</v>
+      </c>
+      <c r="J43" s="49">
+        <v>200</v>
+      </c>
       <c r="K43" s="49">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="48" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B44" s="50">
-        <v>6030</v>
+        <v>5940</v>
       </c>
       <c r="C44" s="50">
-        <v>6490</v>
+        <v>6390</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="48" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H44" s="50">
-        <v>3710</v>
+        <v>4220</v>
       </c>
       <c r="I44" s="50">
-        <v>3990</v>
+        <v>4540</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="49">
@@ -11671,13 +11664,13 @@
     </row>
     <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="48" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B45" s="50">
-        <v>6470</v>
+        <v>6030</v>
       </c>
       <c r="C45" s="50">
-        <v>6990</v>
+        <v>6490</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49">
@@ -11685,42 +11678,42 @@
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="48" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H45" s="50">
-        <v>12590</v>
+        <v>3710</v>
       </c>
       <c r="I45" s="50">
-        <v>13490</v>
+        <v>3990</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="49">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="48" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B46" s="50">
-        <v>1220</v>
+        <v>6470</v>
       </c>
       <c r="C46" s="50">
-        <v>1320</v>
+        <v>6990</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="48" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H46" s="50">
-        <v>7350</v>
+        <v>12590</v>
       </c>
       <c r="I46" s="50">
-        <v>7990</v>
+        <v>13490</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="49">
@@ -11729,13 +11722,13 @@
     </row>
     <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="48" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B47" s="50">
-        <v>1460</v>
+        <v>1220</v>
       </c>
       <c r="C47" s="50">
-        <v>1590</v>
+        <v>1320</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="49">
@@ -11743,61 +11736,63 @@
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="48" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="H47" s="50">
-        <v>7890</v>
+        <v>7350</v>
       </c>
       <c r="I47" s="50">
-        <v>8490</v>
+        <v>7990</v>
       </c>
       <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
+      <c r="K47" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
       <c r="A48" s="48" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B48" s="50">
-        <v>1070</v>
+        <v>1460</v>
       </c>
       <c r="C48" s="50">
-        <v>1160</v>
+        <v>1590</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="48" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="H48" s="50">
-        <v>8310</v>
+        <v>7890</v>
       </c>
       <c r="I48" s="50">
-        <v>8990</v>
+        <v>8490</v>
       </c>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="48" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B49" s="50">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="C49" s="50">
         <v>1160</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H49" s="50">
         <v>8310</v>
@@ -11810,34 +11805,40 @@
     </row>
     <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="50">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="C50" s="50">
-        <v>1199</v>
+        <v>1160</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F50" s="54"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
+      <c r="G50" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="50">
+        <v>8310</v>
+      </c>
+      <c r="I50" s="50">
+        <v>8990</v>
+      </c>
       <c r="J50" s="49"/>
       <c r="K50" s="49"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="48" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="B51" s="50">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="C51" s="50">
-        <v>1250</v>
+        <v>1199</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49">
@@ -11851,11 +11852,19 @@
       <c r="K51" s="49"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="48"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
+      <c r="A52" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="50">
+        <v>1160</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1250</v>
+      </c>
       <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="E52" s="49">
+        <v>20</v>
+      </c>
       <c r="F52" s="54"/>
       <c r="G52" s="48"/>
       <c r="H52" s="50"/>
@@ -11922,8 +11931,8 @@
       <c r="K56" s="55"/>
     </row>
   </sheetData>
-  <sortState ref="G5:K52">
-    <sortCondition ref="G5:G52"/>
+  <sortState ref="A5:K52">
+    <sortCondition ref="A5:A52"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="I53:K54"/>

--- a/2020/March/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/March/Others/Price List Update_01.01.2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>D92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +818,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1039,6 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -1358,7 +1368,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2458,7 +2468,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2904,7 +2914,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2975,7 +2985,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3049,7 +3059,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3120,7 +3130,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3437,7 +3447,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4537,7 +4547,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4983,7 +4993,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5054,7 +5064,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5128,7 +5138,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5199,7 +5209,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5516,7 +5526,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6616,7 +6626,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7062,7 +7072,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7133,7 +7143,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7207,7 +7217,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7278,7 +7288,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10370,8 +10380,8 @@
   </sheetPr>
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="A1:K54"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11302,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:17" ht="15.75">
       <c r="A33" s="48" t="s">
         <v>120</v>
       </c>
@@ -11333,7 +11343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75">
+    <row r="34" spans="1:17" ht="15.75">
       <c r="A34" s="48" t="s">
         <v>117</v>
       </c>
@@ -11361,8 +11371,9 @@
       <c r="K34" s="49">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
+      <c r="M34" s="85"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75">
       <c r="A35" s="48" t="s">
         <v>107</v>
       </c>
@@ -11391,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
+    <row r="36" spans="1:17" ht="15.75">
       <c r="A36" s="48" t="s">
         <v>116</v>
       </c>
@@ -11422,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75">
+    <row r="37" spans="1:17" ht="15.75">
       <c r="A37" s="48" t="s">
         <v>23</v>
       </c>
@@ -11450,8 +11461,11 @@
       <c r="K37" s="49">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
+      <c r="Q37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75">
       <c r="A38" s="48" t="s">
         <v>24</v>
       </c>
@@ -11480,7 +11494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75">
+    <row r="39" spans="1:17" ht="15.75">
       <c r="A39" s="48" t="s">
         <v>66</v>
       </c>
@@ -11509,7 +11523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75">
+    <row r="40" spans="1:17" ht="15.75">
       <c r="A40" s="48" t="s">
         <v>129</v>
       </c>
@@ -11540,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:17" ht="15.75">
       <c r="A41" s="48" t="s">
         <v>56</v>
       </c>
@@ -11571,7 +11585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:17" ht="15.75">
       <c r="A42" s="48" t="s">
         <v>121</v>
       </c>
@@ -11602,7 +11616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:17" ht="15.75">
       <c r="A43" s="48" t="s">
         <v>70</v>
       </c>
@@ -11633,7 +11647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:17" ht="15.75">
       <c r="A44" s="48" t="s">
         <v>128</v>
       </c>
@@ -11662,15 +11676,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75">
+    <row r="45" spans="1:17" ht="15.75">
       <c r="A45" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="50">
-        <v>6030</v>
+        <v>5510</v>
       </c>
       <c r="C45" s="50">
-        <v>6490</v>
+        <v>5890</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49">
@@ -11691,7 +11705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:17" ht="15.75">
       <c r="A46" s="48" t="s">
         <v>77</v>
       </c>
@@ -11720,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:17" ht="15.75">
       <c r="A47" s="48" t="s">
         <v>29</v>
       </c>
@@ -11749,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:17" ht="15.75">
       <c r="A48" s="48" t="s">
         <v>110</v>
       </c>
